--- a/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.93</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.17</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,25 +596,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007049</t>
+          <t>001664</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>平安鑫安混合E</t>
+          <t>平安鑫安混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>21.44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001664</t>
+          <t>007049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安鑫安混合A</t>
+          <t>平安鑫安混合E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>21.44</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001665</t>
+          <t>005418</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>平安鑫安混合C</t>
+          <t>申万菱信量化驱动混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.44</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005418</t>
+          <t>001665</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信量化驱动混合</t>
+          <t>平安鑫安混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +1015,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -988,13 +1053,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010773</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010774</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.29</v>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3681</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.75</v>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1</v>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1604,491 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1987,7 +1988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1998,17 +1999,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2018,14 +2039,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.96</v>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2034,14 +2077,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.29</v>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2050,14 +2115,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.75</v>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2066,14 +2153,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1</v>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2082,13 +2191,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163110</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0953</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001664</t>
+          <t>006061</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>平安鑫安混合A</t>
+          <t>红土创新增强收益债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.44</t>
+          <t>21.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0426</t>
+          <t>0.2594</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -639,27 +677,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007049</t>
+          <t>006700</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安鑫安混合E</t>
+          <t>红土创新稳健混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.44</t>
+          <t>31.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -677,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005418</t>
+          <t>006701</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信量化驱动混合</t>
+          <t>红土创新稳健混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>31.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -715,36 +753,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001665</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>平安鑫安混合C</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21.44</t>
+          <t>23.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>0.0023</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>4</v>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -809,36 +923,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004702</t>
+          <t>005392</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方金融主题灵活配置混合</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>93.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6401</t>
+          <t>0.3681</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -847,36 +961,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>009911</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.22</t>
+          <t>93.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0569</t>
+          <t>0.3553</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -885,36 +999,414 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>000524</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>上投摩根民生需求股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29.22</t>
+          <t>83.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0515</t>
+          <t>0.0477</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,7 +1953,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1491,36 +1983,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005392</t>
+          <t>004702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+          <t>南方金融主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>91.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3681</t>
+          <t>0.6401</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1529,36 +2021,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009911</t>
+          <t>009077</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+          <t>红土创新稳进混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>29.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3553</t>
+          <t>0.0569</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1567,414 +2059,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000524</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根民生需求股票</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.43</t>
+          <t>29.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0477</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>257040</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国联安红利混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>72.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0436</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011027</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国寿安保稳弘混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>36.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0311</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000433</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信鑫发优选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>67.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0277</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>27.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011028</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国寿安保稳弘混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>36.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>27.06</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>080007</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>410009</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华富量子生命力混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>015407</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国寿安保稳弘混合E</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>36.25</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2123,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2039,32 +2153,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006061</t>
+          <t>001664</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>红土创新增强收益债券A</t>
+          <t>平安鑫安混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.68</t>
+          <t>21.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2594</t>
+          <t>0.0426</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2077,27 +2191,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006700</t>
+          <t>007049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>红土创新稳健混合A</t>
+          <t>平安鑫安混合E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>31.10</t>
+          <t>21.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2115,36 +2229,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006701</t>
+          <t>005418</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>红土创新稳健混合C</t>
+          <t>申万菱信量化驱动混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31.10</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2153,112 +2267,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>001665</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>平安鑫安混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>21.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006064</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新增强收益债券C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009077</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>23.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2272,128 +2310,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.96</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1.29</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.75</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -583,6 +600,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3710</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1414,7 +1639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1926,7 +2151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2096,7 +2321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2304,7 +2529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
+++ b/数据整理/stocks/A股/深证主板/002839-张家港行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.63</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.96</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>1.29</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012945</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方宝裕混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012946</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方宝裕混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1091,7 +1240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,7 +1788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2151,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2321,7 +2470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2529,7 +2678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
